--- a/Code/Results/Cases/Case_3_96/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_96/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.76348134367116</v>
+        <v>10.96649452729874</v>
       </c>
       <c r="C2">
-        <v>14.59675696618451</v>
+        <v>8.924616226414072</v>
       </c>
       <c r="D2">
-        <v>3.11056943732175</v>
+        <v>3.711527837427679</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.94792062076552</v>
+        <v>21.98721886483627</v>
       </c>
       <c r="G2">
-        <v>30.52854417237681</v>
+        <v>25.6515833154779</v>
       </c>
       <c r="H2">
-        <v>9.315944445019637</v>
+        <v>12.88429218846789</v>
       </c>
       <c r="I2">
-        <v>13.14278322623456</v>
+        <v>18.05561681493204</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.99744108871724</v>
+        <v>19.96770435713959</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.60413201212678</v>
+        <v>10.39402281140068</v>
       </c>
       <c r="C3">
-        <v>13.73861521207347</v>
+        <v>8.465441934064286</v>
       </c>
       <c r="D3">
-        <v>3.091291552402613</v>
+        <v>3.699710036139603</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.89931779891256</v>
+        <v>21.83331500171699</v>
       </c>
       <c r="G3">
-        <v>28.80471649936783</v>
+        <v>25.27871501027947</v>
       </c>
       <c r="H3">
-        <v>9.148183291052439</v>
+        <v>12.90569977159586</v>
       </c>
       <c r="I3">
-        <v>13.04402612017939</v>
+        <v>18.12450452700004</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.67784666815033</v>
+        <v>19.36146973047553</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.85194764239455</v>
+        <v>10.02660016241512</v>
       </c>
       <c r="C4">
-        <v>13.18364273739508</v>
+        <v>8.168555259246487</v>
       </c>
       <c r="D4">
-        <v>3.079158086564476</v>
+        <v>3.692438087971636</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.25995328678458</v>
+        <v>21.74728996592142</v>
       </c>
       <c r="G4">
-        <v>27.7447537652644</v>
+        <v>25.06044986821346</v>
       </c>
       <c r="H4">
-        <v>9.055264338471881</v>
+        <v>12.92237395700974</v>
       </c>
       <c r="I4">
-        <v>13.00506729212644</v>
+        <v>18.17269342649961</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.20529395907935</v>
+        <v>18.98773513805637</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.53530863544155</v>
+        <v>9.873030160161111</v>
       </c>
       <c r="C5">
-        <v>12.95048153092134</v>
+        <v>8.043879366997974</v>
       </c>
       <c r="D5">
-        <v>3.074153438488186</v>
+        <v>3.689472156329233</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.00081573358869</v>
+        <v>21.71439526781253</v>
       </c>
       <c r="G5">
-        <v>27.31286643859613</v>
+        <v>24.97431758463394</v>
       </c>
       <c r="H5">
-        <v>9.019858011281048</v>
+        <v>12.93005252557474</v>
       </c>
       <c r="I5">
-        <v>12.99431664837544</v>
+        <v>18.19380139418988</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.59214118909665</v>
+        <v>18.83531273522645</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.48212092819777</v>
+        <v>9.847303220217041</v>
       </c>
       <c r="C6">
-        <v>12.91134407179958</v>
+        <v>8.022956282107641</v>
       </c>
       <c r="D6">
-        <v>3.073319184633569</v>
+        <v>3.688979552745403</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.95788045752596</v>
+        <v>21.7090644612668</v>
       </c>
       <c r="G6">
-        <v>27.24117043112363</v>
+        <v>24.96018881303102</v>
       </c>
       <c r="H6">
-        <v>9.014124976251958</v>
+        <v>12.93138079856091</v>
       </c>
       <c r="I6">
-        <v>12.99283153483117</v>
+        <v>18.19739485332407</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.48951317237148</v>
+        <v>18.81000343073894</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.84771825996262</v>
+        <v>10.02454438576283</v>
       </c>
       <c r="C7">
-        <v>13.18052652605147</v>
+        <v>8.166888686596895</v>
       </c>
       <c r="D7">
-        <v>3.079090817586799</v>
+        <v>3.692398096850688</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.25645235272739</v>
+        <v>21.74683754886556</v>
       </c>
       <c r="G7">
-        <v>27.73892828566214</v>
+        <v>25.05927670797291</v>
       </c>
       <c r="H7">
-        <v>9.054776985951866</v>
+        <v>12.9224739401791</v>
       </c>
       <c r="I7">
-        <v>13.00490198364906</v>
+        <v>18.17297215606003</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.1970788430689</v>
+        <v>18.98567966504216</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.37212137124187</v>
+        <v>10.77249920930579</v>
       </c>
       <c r="C8">
-        <v>14.30672240042009</v>
+        <v>8.769432607705852</v>
       </c>
       <c r="D8">
-        <v>3.10399317566135</v>
+        <v>3.707457176566879</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.58558367946754</v>
+        <v>21.93241423484964</v>
       </c>
       <c r="G8">
-        <v>29.93471027549952</v>
+        <v>25.52088130492521</v>
       </c>
       <c r="H8">
-        <v>9.255961253577667</v>
+        <v>12.89093865788066</v>
       </c>
       <c r="I8">
-        <v>13.10403668036887</v>
+        <v>18.07814004173171</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.20707119115919</v>
+        <v>19.75913610480661</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.04087430836036</v>
+        <v>12.10715869002118</v>
       </c>
       <c r="C9">
-        <v>16.290877125799</v>
+        <v>9.830053371377517</v>
       </c>
       <c r="D9">
-        <v>3.14972828791753</v>
+        <v>3.736801751344916</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.21847462925911</v>
+        <v>22.36197388727946</v>
       </c>
       <c r="G9">
-        <v>34.21610206410272</v>
+        <v>26.50481567308241</v>
       </c>
       <c r="H9">
-        <v>9.733888641237881</v>
+        <v>12.85726552282412</v>
       </c>
       <c r="I9">
-        <v>13.48498924646151</v>
+        <v>17.93939527637786</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.77673708759087</v>
+        <v>21.25343546792334</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.80588497563078</v>
+        <v>13.00112180194837</v>
       </c>
       <c r="C10">
-        <v>17.61038582730981</v>
+        <v>10.5331659318604</v>
       </c>
       <c r="D10">
-        <v>3.180184334423533</v>
+        <v>3.758167058855791</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.16253823779879</v>
+        <v>22.71516395272717</v>
       </c>
       <c r="G10">
-        <v>37.37596720085119</v>
+        <v>27.26728442900366</v>
       </c>
       <c r="H10">
-        <v>10.14067564367502</v>
+        <v>12.8498935682508</v>
       </c>
       <c r="I10">
-        <v>13.89874002475604</v>
+        <v>17.86687446469074</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.75484464461471</v>
+        <v>22.32467994549208</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.56623544699738</v>
+        <v>13.41557174894834</v>
       </c>
       <c r="C11">
-        <v>18.18036034016265</v>
+        <v>10.83616646087028</v>
       </c>
       <c r="D11">
-        <v>3.192974156295389</v>
+        <v>3.767827559015419</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.04959125322065</v>
+        <v>22.88340505359035</v>
       </c>
       <c r="G11">
-        <v>38.85416757000709</v>
+        <v>27.62089168449149</v>
       </c>
       <c r="H11">
-        <v>10.33902669883502</v>
+        <v>12.85034487271261</v>
       </c>
       <c r="I11">
-        <v>14.12059499338147</v>
+        <v>17.84039721752676</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.56764656061171</v>
+        <v>22.80385037365323</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.84801088226305</v>
+        <v>13.57301556516476</v>
       </c>
       <c r="C12">
-        <v>18.39180379742979</v>
+        <v>10.9484622656532</v>
       </c>
       <c r="D12">
-        <v>3.19761944792877</v>
+        <v>3.771475862665064</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.43164816056077</v>
+        <v>22.94814782476</v>
       </c>
       <c r="G12">
-        <v>39.41299036696834</v>
+        <v>27.75561001005929</v>
       </c>
       <c r="H12">
-        <v>10.41617469187038</v>
+        <v>12.8510649452945</v>
       </c>
       <c r="I12">
-        <v>14.20985898391237</v>
+        <v>17.83131732652009</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.25780327574098</v>
+        <v>22.98395392938794</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.78759996072725</v>
+        <v>13.5392745747652</v>
       </c>
       <c r="C13">
-        <v>18.34646192772613</v>
+        <v>10.92438632879497</v>
       </c>
       <c r="D13">
-        <v>3.196628681372835</v>
+        <v>3.770690599740027</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.3490243739544</v>
+        <v>22.93415925501764</v>
       </c>
       <c r="G13">
-        <v>39.29266849055188</v>
+        <v>27.72656223777377</v>
       </c>
       <c r="H13">
-        <v>10.399466585449</v>
+        <v>12.85088541237946</v>
       </c>
       <c r="I13">
-        <v>14.19039356877771</v>
+        <v>17.83323059578647</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.10893864982577</v>
+        <v>22.94522798011678</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.58954087490987</v>
+        <v>13.42860017292977</v>
       </c>
       <c r="C14">
-        <v>18.19784427424948</v>
+        <v>10.84545418612793</v>
       </c>
       <c r="D14">
-        <v>3.193360604255918</v>
+        <v>3.76812791436396</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.07930185219115</v>
+        <v>22.88871109400105</v>
       </c>
       <c r="G14">
-        <v>38.90015715123034</v>
+        <v>27.63195960040473</v>
       </c>
       <c r="H14">
-        <v>10.34533206755396</v>
+        <v>12.85039309716322</v>
       </c>
       <c r="I14">
-        <v>14.1278309550391</v>
+        <v>17.83963118554294</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.62432996122437</v>
+        <v>22.81869556471186</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.46742127890413</v>
+        <v>13.36031871361055</v>
       </c>
       <c r="C15">
-        <v>18.10623798424329</v>
+        <v>10.79678716404638</v>
       </c>
       <c r="D15">
-        <v>3.191331454635287</v>
+        <v>3.766556860215297</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.93259221851496</v>
+        <v>22.86100568686805</v>
       </c>
       <c r="G15">
-        <v>38.65963025514862</v>
+        <v>27.57411426330448</v>
       </c>
       <c r="H15">
-        <v>10.31244257006018</v>
+        <v>12.85016311142408</v>
       </c>
       <c r="I15">
-        <v>14.09020680343035</v>
+        <v>17.84367527661669</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.32808716221751</v>
+        <v>22.7410103288005</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.75533561011578</v>
+        <v>12.97543087880976</v>
       </c>
       <c r="C16">
-        <v>17.57252442022746</v>
+        <v>10.51302316755338</v>
       </c>
       <c r="D16">
-        <v>3.179323546651361</v>
+        <v>3.757534414870181</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.10463488190207</v>
+        <v>22.70431670885583</v>
       </c>
       <c r="G16">
-        <v>37.27919753795129</v>
+        <v>27.24429789432833</v>
       </c>
       <c r="H16">
-        <v>10.12799052982985</v>
+        <v>12.84994082229248</v>
       </c>
       <c r="I16">
-        <v>13.88495251522423</v>
+        <v>17.86873672901693</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.63669131318282</v>
+        <v>22.29318563344902</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.30757707116195</v>
+        <v>12.74807135223272</v>
       </c>
       <c r="C17">
-        <v>17.23733081401969</v>
+        <v>10.33461100457926</v>
       </c>
       <c r="D17">
-        <v>3.171656630094418</v>
+        <v>3.75198335049334</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.59749462499727</v>
+        <v>22.61009413543604</v>
       </c>
       <c r="G17">
-        <v>36.43503741635816</v>
+        <v>27.04358482547037</v>
       </c>
       <c r="H17">
-        <v>10.01832146742022</v>
+        <v>12.85078056014227</v>
       </c>
       <c r="I17">
-        <v>13.76793172084992</v>
+        <v>17.8857864175791</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.60188629993856</v>
+        <v>22.01624235253716</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.04603501260132</v>
+        <v>12.61544839136121</v>
       </c>
       <c r="C18">
-        <v>17.0416895806741</v>
+        <v>10.23040802984237</v>
       </c>
       <c r="D18">
-        <v>3.167149928515239</v>
+        <v>3.748785089203594</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.30603470070782</v>
+        <v>22.55661613237341</v>
       </c>
       <c r="G18">
-        <v>35.96703948124791</v>
+        <v>26.92878524870492</v>
       </c>
       <c r="H18">
-        <v>9.956485967568888</v>
+        <v>12.85162159095321</v>
       </c>
       <c r="I18">
-        <v>13.70376364307203</v>
+        <v>17.89620539985373</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.00674883591151</v>
+        <v>21.85619477050568</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.95679442845027</v>
+        <v>12.57022848590544</v>
       </c>
       <c r="C19">
-        <v>16.97496082635889</v>
+        <v>10.19485519594833</v>
       </c>
       <c r="D19">
-        <v>3.165608543949383</v>
+        <v>3.747701324490656</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.20738780186248</v>
+        <v>22.53863407680703</v>
       </c>
       <c r="G19">
-        <v>35.80853255347174</v>
+        <v>26.89003170714618</v>
       </c>
       <c r="H19">
-        <v>9.935759740615067</v>
+        <v>12.85196777299492</v>
       </c>
       <c r="I19">
-        <v>13.68256471654428</v>
+        <v>17.89983796754558</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.80517177911748</v>
+        <v>21.80188104990728</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.35565620459947</v>
+        <v>12.77246627820009</v>
       </c>
       <c r="C20">
-        <v>17.27330760234556</v>
+        <v>10.35376749672939</v>
       </c>
       <c r="D20">
-        <v>3.172483095269103</v>
+        <v>3.752574844114207</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.65145540804489</v>
+        <v>22.62005054561077</v>
       </c>
       <c r="G20">
-        <v>36.52163138987581</v>
+        <v>27.0648854309376</v>
       </c>
       <c r="H20">
-        <v>10.0298664507977</v>
+        <v>12.85065409707679</v>
       </c>
       <c r="I20">
-        <v>13.78006104176662</v>
+        <v>17.88390798929411</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.71201704332003</v>
+        <v>22.04580313493105</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.64788300730214</v>
+        <v>13.46121006625981</v>
       </c>
       <c r="C21">
-        <v>18.24161653938974</v>
+        <v>10.86870493892398</v>
       </c>
       <c r="D21">
-        <v>3.194326321277187</v>
+        <v>3.768880918088623</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.15856979837848</v>
+        <v>22.90203272604407</v>
       </c>
       <c r="G21">
-        <v>39.01546726513072</v>
+        <v>27.65972581034671</v>
       </c>
       <c r="H21">
-        <v>10.36117626464972</v>
+        <v>12.85052278360965</v>
       </c>
       <c r="I21">
-        <v>14.14606097976959</v>
+        <v>17.83772541341661</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.76654015670787</v>
+        <v>22.85589910443187</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.45652647941144</v>
+        <v>13.91248216574182</v>
       </c>
       <c r="C22">
-        <v>18.84881709698189</v>
+        <v>11.19099504579071</v>
       </c>
       <c r="D22">
-        <v>3.20741529349557</v>
+        <v>3.779479391081242</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.27339516656098</v>
+        <v>23.09232108845736</v>
       </c>
       <c r="G22">
-        <v>40.64102114567481</v>
+        <v>28.05316737425541</v>
       </c>
       <c r="H22">
-        <v>10.58966175470906</v>
+        <v>12.85363859507491</v>
       </c>
       <c r="I22">
-        <v>14.4161174147642</v>
+        <v>17.81306344928129</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.7867041432707</v>
+        <v>23.37741755367314</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.02824192462306</v>
+        <v>13.67363478519339</v>
       </c>
       <c r="C23">
-        <v>18.52710857144681</v>
+        <v>11.02029238525818</v>
       </c>
       <c r="D23">
-        <v>3.200557155238232</v>
+        <v>3.773828624269739</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.67914640538006</v>
+        <v>22.99023087428234</v>
       </c>
       <c r="G23">
-        <v>39.77364778625044</v>
+        <v>27.84280328472813</v>
       </c>
       <c r="H23">
-        <v>10.4665707874232</v>
+        <v>12.85168211960582</v>
       </c>
       <c r="I23">
-        <v>14.26900663121302</v>
+        <v>17.82571766791825</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.70495263657519</v>
+        <v>23.09985242218171</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.33393245833782</v>
+        <v>12.76144327973704</v>
       </c>
       <c r="C24">
-        <v>17.25705163232527</v>
+        <v>10.34511192656507</v>
       </c>
       <c r="D24">
-        <v>3.172109755217978</v>
+        <v>3.752307451167123</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.62705943380936</v>
+        <v>22.61554709355996</v>
       </c>
       <c r="G24">
-        <v>36.48248368521349</v>
+        <v>27.0552535681151</v>
       </c>
       <c r="H24">
-        <v>10.02464318916812</v>
+        <v>12.85071015530621</v>
       </c>
       <c r="I24">
-        <v>13.77456772330984</v>
+        <v>17.88475530600725</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.66222783067244</v>
+        <v>22.03244127437831</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.35326506515456</v>
+        <v>11.76094423723461</v>
       </c>
       <c r="C25">
-        <v>15.77830092734248</v>
+        <v>9.556358495932123</v>
       </c>
       <c r="D25">
-        <v>3.13780199402582</v>
+        <v>3.728891551042114</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.50435127571955</v>
+        <v>22.23897343911783</v>
       </c>
       <c r="G25">
-        <v>33.0616593259242</v>
+        <v>26.23106148195651</v>
       </c>
       <c r="H25">
-        <v>9.595187564744961</v>
+        <v>12.86333767205942</v>
       </c>
       <c r="I25">
-        <v>13.35990266002726</v>
+        <v>17.97180791702608</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.2976536364115</v>
+        <v>20.85299243637401</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_96/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_96/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.96649452729874</v>
+        <v>18.76348134367109</v>
       </c>
       <c r="C2">
-        <v>8.924616226414072</v>
+        <v>14.59675696618443</v>
       </c>
       <c r="D2">
-        <v>3.711527837427679</v>
+        <v>3.110569437321614</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.98721886483627</v>
+        <v>21.94792062076574</v>
       </c>
       <c r="G2">
-        <v>25.6515833154779</v>
+        <v>30.52854417237709</v>
       </c>
       <c r="H2">
-        <v>12.88429218846789</v>
+        <v>9.315944445019737</v>
       </c>
       <c r="I2">
-        <v>18.05561681493204</v>
+        <v>13.14278322623469</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.96770435713959</v>
+        <v>29.99744108871721</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.39402281140068</v>
+        <v>17.60413201212673</v>
       </c>
       <c r="C3">
-        <v>8.465441934064286</v>
+        <v>13.73861521207329</v>
       </c>
       <c r="D3">
-        <v>3.699710036139603</v>
+        <v>3.091291552402895</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.83331500171699</v>
+        <v>20.89931779891258</v>
       </c>
       <c r="G3">
-        <v>25.27871501027947</v>
+        <v>28.80471649936786</v>
       </c>
       <c r="H3">
-        <v>12.90569977159586</v>
+        <v>9.148183291052511</v>
       </c>
       <c r="I3">
-        <v>18.12450452700004</v>
+        <v>13.04402612017951</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.36146973047553</v>
+        <v>27.67784666815034</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.02660016241512</v>
+        <v>16.85194764239456</v>
       </c>
       <c r="C4">
-        <v>8.168555259246487</v>
+        <v>13.18364273739507</v>
       </c>
       <c r="D4">
-        <v>3.692438087971636</v>
+        <v>3.079158086564342</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.74728996592142</v>
+        <v>20.2599532867847</v>
       </c>
       <c r="G4">
-        <v>25.06044986821346</v>
+        <v>27.74475376526447</v>
       </c>
       <c r="H4">
-        <v>12.92237395700974</v>
+        <v>9.05526433847197</v>
       </c>
       <c r="I4">
-        <v>18.17269342649961</v>
+        <v>13.00506729212655</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.98773513805637</v>
+        <v>26.20529395907937</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.873030160161111</v>
+        <v>16.53530863544156</v>
       </c>
       <c r="C5">
-        <v>8.043879366997974</v>
+        <v>12.95048153092138</v>
       </c>
       <c r="D5">
-        <v>3.689472156329233</v>
+        <v>3.074153438488415</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.71439526781253</v>
+        <v>20.00081573358861</v>
       </c>
       <c r="G5">
-        <v>24.97431758463394</v>
+        <v>27.31286643859611</v>
       </c>
       <c r="H5">
-        <v>12.93005252557474</v>
+        <v>9.019858011281022</v>
       </c>
       <c r="I5">
-        <v>18.19380139418988</v>
+        <v>12.99431664837543</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.83531273522645</v>
+        <v>25.59214118909658</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.847303220217041</v>
+        <v>16.48212092819788</v>
       </c>
       <c r="C6">
-        <v>8.022956282107641</v>
+        <v>12.91134407179952</v>
       </c>
       <c r="D6">
-        <v>3.688979552745403</v>
+        <v>3.073319184633297</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.7090644612668</v>
+        <v>19.95788045752601</v>
       </c>
       <c r="G6">
-        <v>24.96018881303102</v>
+        <v>27.24117043112381</v>
       </c>
       <c r="H6">
-        <v>12.93138079856091</v>
+        <v>9.014124976251923</v>
       </c>
       <c r="I6">
-        <v>18.19739485332407</v>
+        <v>12.9928315348311</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.81000343073894</v>
+        <v>25.48951317237157</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.02454438576283</v>
+        <v>16.84771825996265</v>
       </c>
       <c r="C7">
-        <v>8.166888686596895</v>
+        <v>13.18052652605155</v>
       </c>
       <c r="D7">
-        <v>3.692398096850688</v>
+        <v>3.079090817586672</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.74683754886556</v>
+        <v>20.25645235272735</v>
       </c>
       <c r="G7">
-        <v>25.05927670797291</v>
+        <v>27.73892828566215</v>
       </c>
       <c r="H7">
-        <v>12.9224739401791</v>
+        <v>9.05477698595185</v>
       </c>
       <c r="I7">
-        <v>18.17297215606003</v>
+        <v>13.00490198364895</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.98567966504216</v>
+        <v>26.19707884306889</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.77249920930579</v>
+        <v>18.3721213712418</v>
       </c>
       <c r="C8">
-        <v>8.769432607705852</v>
+        <v>14.30672240042012</v>
       </c>
       <c r="D8">
-        <v>3.707457176566879</v>
+        <v>3.103993175661345</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.93241423484964</v>
+        <v>21.58558367946767</v>
       </c>
       <c r="G8">
-        <v>25.52088130492521</v>
+        <v>29.93471027549971</v>
       </c>
       <c r="H8">
-        <v>12.89093865788066</v>
+        <v>9.255961253577667</v>
       </c>
       <c r="I8">
-        <v>18.07814004173171</v>
+        <v>13.10403668036902</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.75913610480661</v>
+        <v>29.20707119115919</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.10715869002118</v>
+        <v>21.04087430836035</v>
       </c>
       <c r="C9">
-        <v>9.830053371377517</v>
+        <v>16.29087712579899</v>
       </c>
       <c r="D9">
-        <v>3.736801751344916</v>
+        <v>3.149728287917643</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.36197388727946</v>
+        <v>24.21847462925912</v>
       </c>
       <c r="G9">
-        <v>26.50481567308241</v>
+        <v>34.21610206410275</v>
       </c>
       <c r="H9">
-        <v>12.85726552282412</v>
+        <v>9.733888641237899</v>
       </c>
       <c r="I9">
-        <v>17.93939527637786</v>
+        <v>13.48498924646154</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.25343546792334</v>
+        <v>34.77673708759074</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.00112180194837</v>
+        <v>22.80588497563071</v>
       </c>
       <c r="C10">
-        <v>10.5331659318604</v>
+        <v>17.61038582730966</v>
       </c>
       <c r="D10">
-        <v>3.758167058855791</v>
+        <v>3.180184334423573</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.71516395272717</v>
+        <v>26.16253823779875</v>
       </c>
       <c r="G10">
-        <v>27.26728442900366</v>
+        <v>37.37596720085102</v>
       </c>
       <c r="H10">
-        <v>12.8498935682508</v>
+        <v>10.14067564367504</v>
       </c>
       <c r="I10">
-        <v>17.86687446469074</v>
+        <v>13.89874002475614</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.32467994549208</v>
+        <v>38.75484464461454</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.41557174894834</v>
+        <v>23.56623544699729</v>
       </c>
       <c r="C11">
-        <v>10.83616646087028</v>
+        <v>18.18036034016262</v>
       </c>
       <c r="D11">
-        <v>3.767827559015419</v>
+        <v>3.192974156295562</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.88340505359035</v>
+        <v>27.04959125322063</v>
       </c>
       <c r="G11">
-        <v>27.62089168449149</v>
+        <v>38.85416757000691</v>
       </c>
       <c r="H11">
-        <v>12.85034487271261</v>
+        <v>10.33902669883505</v>
       </c>
       <c r="I11">
-        <v>17.84039721752676</v>
+        <v>14.12059499338157</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.80385037365323</v>
+        <v>40.5676465606115</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.57301556516476</v>
+        <v>23.84801088226311</v>
       </c>
       <c r="C12">
-        <v>10.9484622656532</v>
+        <v>18.39180379742973</v>
       </c>
       <c r="D12">
-        <v>3.771475862665064</v>
+        <v>3.19761944792892</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.94814782476</v>
+        <v>27.43164816056087</v>
       </c>
       <c r="G12">
-        <v>27.75561001005929</v>
+        <v>39.41299036696849</v>
       </c>
       <c r="H12">
-        <v>12.8510649452945</v>
+        <v>10.41617469187038</v>
       </c>
       <c r="I12">
-        <v>17.83131732652009</v>
+        <v>14.20985898391233</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.98395392938794</v>
+        <v>41.25780327574108</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.5392745747652</v>
+        <v>23.78759996072716</v>
       </c>
       <c r="C13">
-        <v>10.92438632879497</v>
+        <v>18.34646192772603</v>
       </c>
       <c r="D13">
-        <v>3.770690599740027</v>
+        <v>3.196628681372941</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.93415925501764</v>
+        <v>27.34902437395443</v>
       </c>
       <c r="G13">
-        <v>27.72656223777377</v>
+        <v>39.29266849055193</v>
       </c>
       <c r="H13">
-        <v>12.85088541237946</v>
+        <v>10.39946658544905</v>
       </c>
       <c r="I13">
-        <v>17.83323059578647</v>
+        <v>14.1903935687778</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.94522798011678</v>
+        <v>41.10893864982579</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.42860017292977</v>
+        <v>23.58954087490977</v>
       </c>
       <c r="C14">
-        <v>10.84545418612793</v>
+        <v>18.19784427424937</v>
       </c>
       <c r="D14">
-        <v>3.76812791436396</v>
+        <v>3.193360604256013</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.88871109400105</v>
+        <v>27.07930185219113</v>
       </c>
       <c r="G14">
-        <v>27.63195960040473</v>
+        <v>38.9001571512303</v>
       </c>
       <c r="H14">
-        <v>12.85039309716322</v>
+        <v>10.34533206755404</v>
       </c>
       <c r="I14">
-        <v>17.83963118554294</v>
+        <v>14.12783095503917</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.81869556471186</v>
+        <v>40.62432996122424</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.36031871361055</v>
+        <v>23.46742127890417</v>
       </c>
       <c r="C15">
-        <v>10.79678716404638</v>
+        <v>18.10623798424343</v>
       </c>
       <c r="D15">
-        <v>3.766556860215297</v>
+        <v>3.191331454635175</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.86100568686805</v>
+        <v>26.932592218515</v>
       </c>
       <c r="G15">
-        <v>27.57411426330448</v>
+        <v>38.65963025514876</v>
       </c>
       <c r="H15">
-        <v>12.85016311142408</v>
+        <v>10.31244257006014</v>
       </c>
       <c r="I15">
-        <v>17.84367527661669</v>
+        <v>14.09020680343029</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.7410103288005</v>
+        <v>40.32808716221757</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.97543087880976</v>
+        <v>22.75533561011575</v>
       </c>
       <c r="C16">
-        <v>10.51302316755338</v>
+        <v>17.57252442022748</v>
       </c>
       <c r="D16">
-        <v>3.757534414870181</v>
+        <v>3.179323546651345</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.70431670885583</v>
+        <v>26.10463488190211</v>
       </c>
       <c r="G16">
-        <v>27.24429789432833</v>
+        <v>37.27919753795131</v>
       </c>
       <c r="H16">
-        <v>12.84994082229248</v>
+        <v>10.12799052982992</v>
       </c>
       <c r="I16">
-        <v>17.86873672901693</v>
+        <v>13.88495251522433</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.29318563344902</v>
+        <v>38.63669131318277</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.74807135223272</v>
+        <v>22.30757707116201</v>
       </c>
       <c r="C17">
-        <v>10.33461100457926</v>
+        <v>17.23733081401975</v>
       </c>
       <c r="D17">
-        <v>3.75198335049334</v>
+        <v>3.17165663009448</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.61009413543604</v>
+        <v>25.59749462499729</v>
       </c>
       <c r="G17">
-        <v>27.04358482547037</v>
+        <v>36.43503741635822</v>
       </c>
       <c r="H17">
-        <v>12.85078056014227</v>
+        <v>10.01832146742021</v>
       </c>
       <c r="I17">
-        <v>17.8857864175791</v>
+        <v>13.76793172084991</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.01624235253716</v>
+        <v>37.60188629993859</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.61544839136121</v>
+        <v>22.04603501260134</v>
       </c>
       <c r="C18">
-        <v>10.23040802984237</v>
+        <v>17.04168958067411</v>
       </c>
       <c r="D18">
-        <v>3.748785089203594</v>
+        <v>3.167149928515234</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.55661613237341</v>
+        <v>25.30603470070779</v>
       </c>
       <c r="G18">
-        <v>26.92878524870492</v>
+        <v>35.96703948124782</v>
       </c>
       <c r="H18">
-        <v>12.85162159095321</v>
+        <v>9.956485967568856</v>
       </c>
       <c r="I18">
-        <v>17.89620539985373</v>
+        <v>13.70376364307199</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.85619477050568</v>
+        <v>37.00674883591141</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.57022848590544</v>
+        <v>21.95679442845017</v>
       </c>
       <c r="C19">
-        <v>10.19485519594833</v>
+        <v>16.97496082635876</v>
       </c>
       <c r="D19">
-        <v>3.747701324490656</v>
+        <v>3.165608543949368</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.53863407680703</v>
+        <v>25.2073878018626</v>
       </c>
       <c r="G19">
-        <v>26.89003170714618</v>
+        <v>35.80853255347184</v>
       </c>
       <c r="H19">
-        <v>12.85196777299492</v>
+        <v>9.935759740615191</v>
       </c>
       <c r="I19">
-        <v>17.89983796754558</v>
+        <v>13.68256471654447</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.80188104990728</v>
+        <v>36.8051717791173</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.77246627820009</v>
+        <v>22.35565620459948</v>
       </c>
       <c r="C20">
-        <v>10.35376749672939</v>
+        <v>17.27330760234558</v>
       </c>
       <c r="D20">
-        <v>3.752574844114207</v>
+        <v>3.172483095269092</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.62005054561077</v>
+        <v>25.65145540804491</v>
       </c>
       <c r="G20">
-        <v>27.0648854309376</v>
+        <v>36.52163138987595</v>
       </c>
       <c r="H20">
-        <v>12.85065409707679</v>
+        <v>10.02986645079771</v>
       </c>
       <c r="I20">
-        <v>17.88390798929411</v>
+        <v>13.78006104176662</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.04580313493105</v>
+        <v>37.71201704332007</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.46121006625981</v>
+        <v>23.64788300730216</v>
       </c>
       <c r="C21">
-        <v>10.86870493892398</v>
+        <v>18.24161653938975</v>
       </c>
       <c r="D21">
-        <v>3.768880918088623</v>
+        <v>3.194326321277126</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.90203272604407</v>
+        <v>27.15856979837849</v>
       </c>
       <c r="G21">
-        <v>27.65972581034671</v>
+        <v>39.01546726513079</v>
       </c>
       <c r="H21">
-        <v>12.85052278360965</v>
+        <v>10.36117626464972</v>
       </c>
       <c r="I21">
-        <v>17.83772541341661</v>
+        <v>14.14606097976961</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.85589910443187</v>
+        <v>40.76654015670796</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.91248216574182</v>
+        <v>24.45652647941155</v>
       </c>
       <c r="C22">
-        <v>11.19099504579071</v>
+        <v>18.84881709698179</v>
       </c>
       <c r="D22">
-        <v>3.779479391081242</v>
+        <v>3.207415293495552</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.09232108845736</v>
+        <v>28.27339516656112</v>
       </c>
       <c r="G22">
-        <v>28.05316737425541</v>
+        <v>40.64102114567505</v>
       </c>
       <c r="H22">
-        <v>12.85363859507491</v>
+        <v>10.58966175470903</v>
       </c>
       <c r="I22">
-        <v>17.81306344928129</v>
+        <v>14.41611741476418</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.37741755367314</v>
+        <v>42.78670414327065</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.67363478519339</v>
+        <v>24.02824192462305</v>
       </c>
       <c r="C23">
-        <v>11.02029238525818</v>
+        <v>18.52710857144678</v>
       </c>
       <c r="D23">
-        <v>3.773828624269739</v>
+        <v>3.200557155238226</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.99023087428234</v>
+        <v>27.67914640538001</v>
       </c>
       <c r="G23">
-        <v>27.84280328472813</v>
+        <v>39.77364778625036</v>
       </c>
       <c r="H23">
-        <v>12.85168211960582</v>
+        <v>10.46657078742319</v>
       </c>
       <c r="I23">
-        <v>17.82571766791825</v>
+        <v>14.26900663121306</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.09985242218171</v>
+        <v>41.70495263657522</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.76144327973704</v>
+        <v>22.33393245833784</v>
       </c>
       <c r="C24">
-        <v>10.34511192656507</v>
+        <v>17.25705163232528</v>
       </c>
       <c r="D24">
-        <v>3.752307451167123</v>
+        <v>3.172109755217821</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.61554709355996</v>
+        <v>25.62705943380938</v>
       </c>
       <c r="G24">
-        <v>27.0552535681151</v>
+        <v>36.48248368521354</v>
       </c>
       <c r="H24">
-        <v>12.85071015530621</v>
+        <v>10.02464318916812</v>
       </c>
       <c r="I24">
-        <v>17.88475530600725</v>
+        <v>13.77456772330984</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.03244127437831</v>
+        <v>37.66222783067256</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.76094423723461</v>
+        <v>20.35326506515455</v>
       </c>
       <c r="C25">
-        <v>9.556358495932123</v>
+        <v>15.77830092734238</v>
       </c>
       <c r="D25">
-        <v>3.728891551042114</v>
+        <v>3.137801994025889</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.23897343911783</v>
+        <v>23.50435127571965</v>
       </c>
       <c r="G25">
-        <v>26.23106148195651</v>
+        <v>33.06165932592425</v>
       </c>
       <c r="H25">
-        <v>12.86333767205942</v>
+        <v>9.595187564745016</v>
       </c>
       <c r="I25">
-        <v>17.97180791702608</v>
+        <v>13.35990266002737</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.85299243637401</v>
+        <v>33.29765363641145</v>
       </c>
       <c r="N25">
         <v>0</v>
